--- a/Finance_Tracker_Class_Matrix.xlsx
+++ b/Finance_Tracker_Class_Matrix.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9398440D-3261-4416-99F5-7DE8F709FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D96A4D-C4AE-4110-97FC-ACE9D49EBFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Service" sheetId="2" r:id="rId2"/>
+    <sheet name="Routes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="270">
   <si>
     <t>Element Type</t>
   </si>
@@ -503,9 +504,6 @@
   </si>
   <si>
     <t>Inserts a debt payment data to database</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>user_id: Integer
@@ -540,6 +538,9 @@
   </si>
   <si>
     <t>Return an debt payment object by id</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
   <si>
     <t>get_all_debt_payments_by_user()</t>
@@ -658,13 +659,356 @@
     <t>Class: ExpensesService</t>
   </si>
   <si>
+    <t>insert_expenses()</t>
+  </si>
+  <si>
+    <t>Inserts a expenses data to database</t>
+  </si>
+  <si>
+    <t>expenses_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">expenses_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">payee: String
+amount: Float
+payment_method: Enum
+remarks: String
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">payment_method Enum String values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cash, gcash, bank, card, other</t>
+    </r>
+  </si>
+  <si>
+    <t>get_expenses_by_id()</t>
+  </si>
+  <si>
+    <t>Returns an expenses object by id</t>
+  </si>
+  <si>
+    <t>get_all_expenses_by_user()</t>
+  </si>
+  <si>
+    <t>Returns list of all expenses objects by a user stored in database</t>
+  </si>
+  <si>
+    <t>edit_expenses()</t>
+  </si>
+  <si>
+    <t>Edit a expenses details</t>
+  </si>
+  <si>
+    <t>user_id: Integer
+expenses_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">expenses_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">payee: String
+payment_method: Enum
+remarks: String
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">payment_method Enum String values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cash, gcash, bank, card, other</t>
+    </r>
+  </si>
+  <si>
+    <t>delete_expenses()</t>
+  </si>
+  <si>
+    <t>Delete single expenses record in database</t>
+  </si>
+  <si>
     <t>Class: IncomeService</t>
   </si>
   <si>
-    <t>Class: SavingGoalsService</t>
-  </si>
-  <si>
-    <t>Class: SavingTransactionsService</t>
+    <t>insert_income()</t>
+  </si>
+  <si>
+    <t>Inserts a income data to database</t>
+  </si>
+  <si>
+    <t>income_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">income_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>source: String
+amount: Float
+remarks: String</t>
+    </r>
+  </si>
+  <si>
+    <t>get_income_by_id()</t>
+  </si>
+  <si>
+    <t>Returns an income object by id</t>
+  </si>
+  <si>
+    <t>get_all_income_by_user()</t>
+  </si>
+  <si>
+    <t>Returns list of all income objects by a user stored in database</t>
+  </si>
+  <si>
+    <t>edit_income()</t>
+  </si>
+  <si>
+    <t>Edit a income details</t>
+  </si>
+  <si>
+    <t>user_id: Integer
+income_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">income_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>source: String
+remarks: String</t>
+    </r>
+  </si>
+  <si>
+    <t>delete_income()</t>
+  </si>
+  <si>
+    <t>Delete single income record in database</t>
+  </si>
+  <si>
+    <t>Class: SavingsGoalsService</t>
+  </si>
+  <si>
+    <t>insert_saving_goals()</t>
+  </si>
+  <si>
+    <t>Inserts a saving goals data to database</t>
+  </si>
+  <si>
+    <t>saving_goals_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">saving_goals_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>name: String
+target_amount: Float
+target_date: Date
+remarks: String</t>
+    </r>
+  </si>
+  <si>
+    <t>get_saving_goals_by_id()</t>
+  </si>
+  <si>
+    <t>Returns an saving goals object by id</t>
+  </si>
+  <si>
+    <t>get_all_saving_goals_by_user()</t>
+  </si>
+  <si>
+    <t>Returns list of all saving goals objects by a user stored in database</t>
+  </si>
+  <si>
+    <t>edit_saving_goals</t>
+  </si>
+  <si>
+    <t>Edit a saving goals details</t>
+  </si>
+  <si>
+    <t>user_id: Integer
+saving_goals_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">saving_goals_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>name: String
+target_date: Date
+remarks: String</t>
+    </r>
+  </si>
+  <si>
+    <t>delete_saving_goals()</t>
+  </si>
+  <si>
+    <t>Delete single saving goals record in database</t>
+  </si>
+  <si>
+    <t>Class: SavingsTransactionsService</t>
+  </si>
+  <si>
+    <t>insert_saving_transactions()</t>
+  </si>
+  <si>
+    <t>Inserts a saving transactions data to database</t>
+  </si>
+  <si>
+    <t>saving_transactions_data: Dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">saving_transactions_data values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>txt_type: Enum
+amount: Float
+remarks: String
+txt_type Enum values:
+deposit, withdraw</t>
+    </r>
+  </si>
+  <si>
+    <t>get_saving_transactions_by_id()</t>
+  </si>
+  <si>
+    <t>Returns an saving transactions object by id</t>
+  </si>
+  <si>
+    <t>get_all_saving_transactions_by_user()</t>
+  </si>
+  <si>
+    <t>Returns list of all saving transactions objects by a user stored in database</t>
+  </si>
+  <si>
+    <t>edit_saving_transactions</t>
+  </si>
+  <si>
+    <t>Edit a saving transactions details</t>
+  </si>
+  <si>
+    <t>user_id: Integer
+remarks: String</t>
+  </si>
+  <si>
+    <t>delete_saving_transactions()</t>
+  </si>
+  <si>
+    <t>Delete single saving transactions record in database</t>
   </si>
   <si>
     <t>Class: UserService</t>
@@ -749,6 +1093,53 @@
   </si>
   <si>
     <t>Delete single user record in database</t>
+  </si>
+  <si>
+    <t>Class: r_users</t>
+  </si>
+  <si>
+    <t>Decorator</t>
+  </si>
+  <si>
+    <t>require_user_session()</t>
+  </si>
+  <si>
+    <t>Check if system have current session</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>index()</t>
+  </si>
+  <si>
+    <t>Webpage</t>
+  </si>
+  <si>
+    <t>Login page of the system</t>
+  </si>
+  <si>
+    <t>login()</t>
+  </si>
+  <si>
+    <t>Login process of the system</t>
+  </si>
+  <si>
+    <t>email: String
+password: String</t>
+  </si>
+  <si>
+    <t>register()</t>
+  </si>
+  <si>
+    <t>Registration process of the suser</t>
+  </si>
+  <si>
+    <t>firstname: String
+lastname: String
+email: String
+password: String
+password2: String</t>
   </si>
 </sst>
 </file>
@@ -886,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -924,11 +1315,315 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1271,18 +1966,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA69C7BC-F2FB-4B65-AD34-8A6C81E213EA}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA69C7BC-F2FB-4B65-AD34-8A6C81E213EA}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24">
   <autoFilter ref="A1:I10" xr:uid="{DA69C7BC-F2FB-4B65-AD34-8A6C81E213EA}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C767AAC2-949C-4F42-9B3F-0ED053943E3F}" name="Element Type" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EE980EB9-16B6-42B4-A24F-3405E444E9C5}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0D17B074-0F6A-4F35-8343-6ADD587A9564}" name="Return Type" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7916B75A-0EA8-4292-8F27-8E311EB3F632}" name="Description" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C767AAC2-949C-4F42-9B3F-0ED053943E3F}" name="Element Type" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EE980EB9-16B6-42B4-A24F-3405E444E9C5}" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{0D17B074-0F6A-4F35-8343-6ADD587A9564}" name="Return Type" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{7916B75A-0EA8-4292-8F27-8E311EB3F632}" name="Description" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{50637B55-6EE8-42DA-9B2E-4A900BB2635F}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{44DE7B05-9F34-46C8-85AC-DD64BBA19CF4}" name="Status" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A03820E9-8274-42C4-95AC-4F1B55B2A404}" name="Parameter" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ACBA1796-9E4C-4044-9E2B-42F335BA4387}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{BA63C124-1884-4AF4-91D4-0249496343D8}" name="Date Finished" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{44DE7B05-9F34-46C8-85AC-DD64BBA19CF4}" name="Status" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A03820E9-8274-42C4-95AC-4F1B55B2A404}" name="Parameter" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{ACBA1796-9E4C-4044-9E2B-42F335BA4387}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{BA63C124-1884-4AF4-91D4-0249496343D8}" name="Date Finished" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4970DCB1-A6B2-4418-A613-3C9926452666}" name="Table13" displayName="Table13" ref="A1:I6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:I6" xr:uid="{DA69C7BC-F2FB-4B65-AD34-8A6C81E213EA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4916D008-6DDA-4BA3-ADA8-F4DA11A1F673}" name="Element Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1D8384DC-6AA0-40E0-873E-23505CFA2ECC}" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{73215D59-380B-4ACE-A93C-88AF68998A15}" name="Return Type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E691E0C9-A160-455E-B4E5-968AEB63BEC8}" name="Description" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{83460086-E972-41C5-A104-EAD762D97A93}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{5D6B6047-E08B-45C9-B2BC-744FDD793F78}" name="Status" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{8C00124A-724F-493A-A432-67C1F0C90325}" name="Parameter" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2CE3A20C-9032-4EC7-AA87-879681DE9818}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FD852D40-79BD-4FBA-815B-6B2855F1B03E}" name="Date Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3328,17 +4041,17 @@
     <row r="92" spans="1:7" s="13" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3348,20 +4061,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC9294-62B7-4A8C-8883-566267AF0468}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -3645,34 +4358,36 @@
         <v>137</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <v>45958</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30.75">
       <c r="A14" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>133</v>
@@ -3697,7 +4412,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>133</v>
@@ -3722,10 +4437,10 @@
         <v>147</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>165</v>
@@ -3749,7 +4464,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>141</v>
@@ -3819,7 +4534,7 @@
         <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>130</v>
@@ -3943,314 +4658,971 @@
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
+    <row r="27" spans="1:9" ht="152.25">
+      <c r="A27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30.75">
+      <c r="A28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45.75">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="137.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="16">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30.75">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="B33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="60.75">
+      <c r="A34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75">
+      <c r="A35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.75">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="45.75">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="30.75">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="8" t="s">
+      <c r="B40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="76.5">
+      <c r="A41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="30.75">
+      <c r="A42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" ht="45.75">
+      <c r="A43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="60.75">
+      <c r="A44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="30.75">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="8" t="s">
+      <c r="B47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" ht="121.5">
+      <c r="A48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" ht="30.75">
+      <c r="A49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="45.75">
+      <c r="A50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="30.75">
+      <c r="A51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="45.75">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
+      <c r="B54" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" ht="91.5">
-      <c r="A39" s="3" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" ht="76.5">
+      <c r="A55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D55" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="15">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30.75">
-      <c r="A40" t="s">
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="I55" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30.75">
+      <c r="A56" t="s">
         <v>128</v>
       </c>
-      <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D56" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
         <v>132</v>
       </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>141</v>
       </c>
-      <c r="I40" s="15">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30.75">
-      <c r="A41" t="s">
+      <c r="I56" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30.75">
+      <c r="A57" t="s">
         <v>128</v>
       </c>
-      <c r="B41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D57" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" t="s">
         <v>132</v>
       </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="15">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="45.75">
-      <c r="A42" t="s">
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45.75">
+      <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
         <v>130</v>
       </c>
-      <c r="D42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" t="s">
         <v>147</v>
       </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="I42" s="15">
-        <v>45926</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30.75">
-      <c r="A43" t="s">
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30.75">
+      <c r="A59" t="s">
         <v>128</v>
       </c>
-      <c r="B43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D59" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
         <v>152</v>
       </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
         <v>141</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I59" s="15">
         <v>45926</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F11 F13:F1048576">
+  <conditionalFormatting sqref="F1:F11 F13:F25 F27:F32 F34:F46 F48:F1048576">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F11 F13:F25 F27:F32 F34:F46 F48:F1048576">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Ongoing">
+      <formula>NOT(ISERROR(SEARCH("Ongoing",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F11 F13:F25 F27:F32 F34:F46 F48:F1048576">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C3B86C-2865-40DA-B7C3-EFA9FFE26612}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75">
+      <c r="A3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="15">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="15">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30.75">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="76.5">
+      <c r="A6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F3:F5">
     <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F13:F1048576">
+  <conditionalFormatting sqref="F1 F3:F5">
     <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Ongoing">
       <formula>NOT(ISERROR(SEARCH("Ongoing",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F13:F1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",F1)))</formula>
     </cfRule>
